--- a/writings/fig/3feature_lik.xlsx
+++ b/writings/fig/3feature_lik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhexuanxu/Documents/GitHub/hierarchical_bayesian/writings/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{2468088E-6447-FC42-AF7A-47CB1B0B2D56}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100008_{47AAC67D-C284-0746-8C32-523AB43B0849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17400" yWindow="4940" windowWidth="27300" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="3820" windowWidth="27300" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VB2_lik" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">VB2_lik!$B$2:$B$801</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">VB2_lik!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">VB2_lik!$C$2:$C$801</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -5661,7 +5656,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -5674,14 +5669,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
                   <a:t>T</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
                   <a:t>ime(Minutes)</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5698,7 +5693,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
@@ -5783,7 +5778,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65%"/>
@@ -5796,14 +5791,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
+                  <a:t>Log</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
                   <a:t>L</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1600" b="1"/>
+                  <a:rPr lang="en-US" altLang="zh-Hans" sz="1800" b="1"/>
                   <a:t>ikelihood</a:t>
                 </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5820,7 +5819,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65%"/>
